--- a/TP3/Record_expériences.xlsx
+++ b/TP3/Record_expériences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patri\Desktop\CERI - Devoirs\Apprentissage supervisé\TP\TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD4C6ED-A68F-4D8F-9F3D-FB8EB3E05716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F96CF-3A34-4E3D-AF7D-A965529C8BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="1968" windowWidth="17280" windowHeight="8880" xr2:uid="{6D0FA0C4-E16D-4A55-B05A-5DF9CD3D586A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D0FA0C4-E16D-4A55-B05A-5DF9CD3D586A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Exp</t>
   </si>
@@ -61,6 +61,51 @@
   </si>
   <si>
     <t>non a T fixe</t>
+  </si>
+  <si>
+    <t>NON LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nb flipped </t>
+  </si>
+  <si>
+    <t>taille ensemble</t>
+  </si>
+  <si>
+    <t>temp_initial</t>
+  </si>
+  <si>
+    <t>target_temp</t>
+  </si>
+  <si>
+    <t>grad_stop &gt; 0</t>
+  </si>
+  <si>
+    <t>grad_stop &lt; 0</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>err_prof</t>
+  </si>
+  <si>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>facteur bruit</t>
+  </si>
+  <si>
+    <t>maxIter</t>
+  </si>
+  <si>
+    <t>first Iteration Min err</t>
+  </si>
+  <si>
+    <t>min err found</t>
+  </si>
+  <si>
+    <t>err_app_last_iteration</t>
   </si>
 </sst>
 </file>
@@ -96,13 +141,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -412,15 +487,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC0DEEF-BAA4-4048-88FD-E117B31B8E26}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -480,7 +558,369 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <v>2000</v>
+      </c>
+      <c r="I10">
+        <v>2000</v>
+      </c>
+      <c r="K10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1">
+        <v>20</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>D10/D11</f>
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <f>E10/E11</f>
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <f>F10/F11</f>
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <f>H10/H11</f>
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <f>I10/I11</f>
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <f>K10/K11</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.25</v>
+      </c>
+      <c r="D13">
+        <v>0.25</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+      <c r="F13">
+        <v>0.25</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <v>0.25</v>
+      </c>
+      <c r="K13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>1E-3</v>
+      </c>
+      <c r="E14">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>1E-4</v>
+      </c>
+      <c r="H14">
+        <v>1E-4</v>
+      </c>
+      <c r="I14">
+        <v>1E-4</v>
+      </c>
+      <c r="K14">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>-10</v>
+      </c>
+      <c r="E16">
+        <v>-10</v>
+      </c>
+      <c r="F16">
+        <v>-3.3330000000000002</v>
+      </c>
+      <c r="H16">
+        <v>-5</v>
+      </c>
+      <c r="I16">
+        <v>-5</v>
+      </c>
+      <c r="K16">
+        <f>-10/3</f>
+        <v>-3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1E-3</v>
+      </c>
+      <c r="D17">
+        <v>1E-4</v>
+      </c>
+      <c r="E17">
+        <v>1E-4</v>
+      </c>
+      <c r="F17">
+        <v>1E-4</v>
+      </c>
+      <c r="H17">
+        <v>1E-4</v>
+      </c>
+      <c r="I17">
+        <v>1E-4</v>
+      </c>
+      <c r="K17">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="H18">
+        <v>2000</v>
+      </c>
+      <c r="I18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>219</v>
+      </c>
+      <c r="I19">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>245</v>
+      </c>
+      <c r="F21">
+        <v>245</v>
+      </c>
+      <c r="H21">
+        <v>101</v>
+      </c>
+      <c r="I21">
+        <v>110</v>
+      </c>
+      <c r="K21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>200</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>200</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <f>B21-B22</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>D21-D22</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>E21-E22</f>
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <f>F21-F22</f>
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <f>H21-H22</f>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f>I21-I22</f>
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <f>K21-K22</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D23:F23 H23:K23">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>D23=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:F23 H23:K23">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>D23&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B23=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B23&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>